--- a/biology/Zoologie/Hadronyche_valida/Hadronyche_valida.xlsx
+++ b/biology/Zoologie/Hadronyche_valida/Hadronyche_valida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadronyche valida est une espèce d'araignées mygalomorphes de la famille des Atracidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadronyche valida est une espèce d'araignées mygalomorphes de la famille des Atracidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans l'extrême Nord-Est de la Nouvelle-Galles du Sud et dans l'extrême Sud-Est du Queensland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans l'extrême Nord-Est de la Nouvelle-Galles du Sud et dans l'extrême Sud-Est du Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Gray en 2010 mesure 8,72 mm de long sur 8,12 mm et l'abdomen 9,35 mm de long sur 7,13 mm et la carapace de la femelle mesure 10,40 mm de long sur 9,28 mm et l'abdomen 13,60 mm de long sur 9,86 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Gray en 2010 mesure 8,72 mm de long sur 8,12 mm et l'abdomen 9,35 mm de long sur 7,13 mm et la carapace de la femelle mesure 10,40 mm de long sur 9,28 mm et l'abdomen 13,60 mm de long sur 9,86 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rainbow &amp; Pulleine, 1918 : Australian trap-door spiders. Records of the Australian Museum, vol. 12, p. 81-169 (texte intégral).</t>
         </is>
